--- a/TA/LogBook Juan Sterling Martua.xlsx
+++ b/TA/LogBook Juan Sterling Martua.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H P\Documents\KP\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC4E0A6-3C59-409D-B244-7AF2392EBB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61A9BC-B237-446A-A27C-B8867868CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agustus" sheetId="6" r:id="rId1"/>
     <sheet name="September" sheetId="4" r:id="rId2"/>
     <sheet name="Oktober" sheetId="7" r:id="rId3"/>
     <sheet name="Oktober (2)" sheetId="8" r:id="rId4"/>
-    <sheet name="Total min 17 lembar" sheetId="2" r:id="rId5"/>
+    <sheet name="November" sheetId="9" r:id="rId5"/>
+    <sheet name="Total min 17 lembar" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
   <si>
     <t>Nama</t>
   </si>
@@ -227,6 +228,12 @@
   </si>
   <si>
     <t>mengerjakan [Revisi Sistem Pengajuan Insentif] Modul Pengajuan Insentif Dosen - Rincian Pengajuan Dana</t>
+  </si>
+  <si>
+    <t>mengerjakan [Revisi Sistem Pengajuan Insentif] Modul Pencairan Dana - Perbaikan Modul Pencairan Dana</t>
+  </si>
+  <si>
+    <t>mengerjakan [Perbaikan November 1_23] Modul Skema Penelitian - Perbaikan Edit Laporan Kemajuan Penelitian</t>
   </si>
 </sst>
 </file>
@@ -445,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,8 +493,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,8 +511,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,17 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +561,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,15 +1263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66902</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76379</xdr:rowOff>
+      <xdr:colOff>19277</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1280,7 +1300,162 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="8524875"/>
+          <a:off x="9525" y="7753350"/>
+          <a:ext cx="1629002" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4924425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>197889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AD6255-AFE3-4BAC-ACB3-38A742A9B6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="2409825"/>
+          <a:ext cx="1524000" cy="683664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4953000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5208B80F-B124-4309-AAE9-15A04BB45AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="5343525"/>
+          <a:ext cx="1524000" cy="683664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19277</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6474EC7B-AF89-42AE-8935-71AB43ECB72A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7753350"/>
           <a:ext cx="1629002" cy="1286054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1510,10 +1685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1535,10 +1710,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1548,10 +1723,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1561,15 +1736,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -1580,10 +1755,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1773,7 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>45159</v>
       </c>
       <c r="C8" s="6">
@@ -1610,14 +1785,14 @@
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.5</v>
       </c>
@@ -1627,14 +1802,14 @@
       <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>45160</v>
       </c>
       <c r="C10" s="6">
@@ -1646,12 +1821,12 @@
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.5</v>
       </c>
@@ -1661,14 +1836,14 @@
       <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>45161</v>
       </c>
       <c r="C12" s="6">
@@ -1680,12 +1855,12 @@
       <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.5</v>
       </c>
@@ -1695,14 +1870,14 @@
       <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="20">
         <v>45162</v>
       </c>
       <c r="C14" s="6">
@@ -1714,12 +1889,12 @@
       <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7">
         <v>0.5</v>
       </c>
@@ -1729,14 +1904,14 @@
       <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="20">
         <v>45163</v>
       </c>
       <c r="C16" s="6">
@@ -1748,12 +1923,12 @@
       <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.5</v>
       </c>
@@ -1763,14 +1938,14 @@
       <c r="E17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="20">
         <v>45164</v>
       </c>
       <c r="C18" s="6">
@@ -1782,23 +1957,23 @@
       <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>7</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="20">
         <v>45166</v>
       </c>
       <c r="C20" s="6">
@@ -1810,14 +1985,14 @@
       <c r="E20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>0.5</v>
       </c>
@@ -1827,14 +2002,14 @@
       <c r="E21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>8</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="20">
         <v>45167</v>
       </c>
       <c r="C22" s="6">
@@ -1846,12 +2021,12 @@
       <c r="E22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="7">
         <v>0.5</v>
       </c>
@@ -1861,14 +2036,14 @@
       <c r="E23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>9</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="20">
         <v>45168</v>
       </c>
       <c r="C24" s="6">
@@ -1880,12 +2055,12 @@
       <c r="E24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="7">
         <v>0.5</v>
       </c>
@@ -1895,14 +2070,14 @@
       <c r="E25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>10</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="6">
@@ -1914,12 +2089,12 @@
       <c r="E26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7">
         <v>0.5</v>
       </c>
@@ -1929,17 +2104,17 @@
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1970,53 +2145,31 @@
       <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A8:A9"/>
@@ -2033,6 +2186,28 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="F20:F27"/>
     <mergeCell ref="F8:F19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{595D8900-934A-4FF2-AF51-D95A8C7F1035}"/>
@@ -2065,10 +2240,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2090,10 +2265,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2103,10 +2278,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,15 +2291,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -2135,10 +2310,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2328,7 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>45171</v>
       </c>
       <c r="C8" s="6">
@@ -2172,7 +2347,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="11"/>
@@ -2183,7 +2358,7 @@
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>45173</v>
       </c>
       <c r="C10" s="6">
@@ -2201,7 +2376,7 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.5</v>
       </c>
@@ -2218,7 +2393,7 @@
       <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>45174</v>
       </c>
       <c r="C12" s="6">
@@ -2235,7 +2410,7 @@
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.5</v>
       </c>
@@ -2252,7 +2427,7 @@
       <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="20">
         <v>45175</v>
       </c>
       <c r="C14" s="6">
@@ -2269,7 +2444,7 @@
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7">
         <v>0.5</v>
       </c>
@@ -2286,7 +2461,7 @@
       <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="20">
         <v>45176</v>
       </c>
       <c r="C16" s="6">
@@ -2303,7 +2478,7 @@
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.5</v>
       </c>
@@ -2320,7 +2495,7 @@
       <c r="A18" s="19">
         <v>6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="20">
         <v>45177</v>
       </c>
       <c r="C18" s="6">
@@ -2337,7 +2512,7 @@
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7">
         <v>0.5</v>
       </c>
@@ -2354,7 +2529,7 @@
       <c r="A20" s="19">
         <v>7</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="20">
         <v>45180</v>
       </c>
       <c r="C20" s="6">
@@ -2366,14 +2541,14 @@
       <c r="E20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7">
         <v>0.5</v>
       </c>
@@ -2383,14 +2558,14 @@
       <c r="E21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>8</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="20">
         <v>45181</v>
       </c>
       <c r="C22" s="6">
@@ -2402,12 +2577,12 @@
       <c r="E22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7">
         <v>0.5</v>
       </c>
@@ -2417,14 +2592,14 @@
       <c r="E23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>9</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="20">
         <v>45182</v>
       </c>
       <c r="C24" s="6">
@@ -2436,12 +2611,12 @@
       <c r="E24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7">
         <v>0.5</v>
       </c>
@@ -2451,14 +2626,14 @@
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>10</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="20">
         <v>45183</v>
       </c>
       <c r="C26" s="6">
@@ -2470,12 +2645,12 @@
       <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7">
         <v>0.5</v>
       </c>
@@ -2485,14 +2660,14 @@
       <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>11</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="20">
         <v>45184</v>
       </c>
       <c r="C28" s="6">
@@ -2504,12 +2679,12 @@
       <c r="E28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7">
         <v>0.5</v>
       </c>
@@ -2519,14 +2694,14 @@
       <c r="E29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>12</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="20">
         <v>45187</v>
       </c>
       <c r="C30" s="6">
@@ -2538,14 +2713,14 @@
       <c r="E30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7">
         <v>0.5</v>
       </c>
@@ -2555,14 +2730,14 @@
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>13</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="20">
         <v>45188</v>
       </c>
       <c r="C32" s="6">
@@ -2574,12 +2749,12 @@
       <c r="E32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7">
         <v>0.5</v>
       </c>
@@ -2589,14 +2764,14 @@
       <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>14</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="20">
         <v>45189</v>
       </c>
       <c r="C34" s="6">
@@ -2608,12 +2783,12 @@
       <c r="E34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="7">
         <v>0.5</v>
       </c>
@@ -2623,14 +2798,14 @@
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>15</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="20">
         <v>45190</v>
       </c>
       <c r="C36" s="6">
@@ -2642,12 +2817,12 @@
       <c r="E36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="7">
         <v>0.5</v>
       </c>
@@ -2657,14 +2832,14 @@
       <c r="E37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>16</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="20">
         <v>45191</v>
       </c>
       <c r="C38" s="6">
@@ -2676,12 +2851,12 @@
       <c r="E38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="7">
         <v>0.5</v>
       </c>
@@ -2691,14 +2866,14 @@
       <c r="E39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>17</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="20">
         <v>45194</v>
       </c>
       <c r="C40" s="6">
@@ -2710,14 +2885,14 @@
       <c r="E40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="7">
         <v>0.5</v>
       </c>
@@ -2727,14 +2902,14 @@
       <c r="E41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>18</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="20">
         <v>45195</v>
       </c>
       <c r="C42" s="6">
@@ -2746,12 +2921,12 @@
       <c r="E42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="7">
         <v>0.5</v>
       </c>
@@ -2761,14 +2936,14 @@
       <c r="E43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>19</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="20">
         <v>45196</v>
       </c>
       <c r="C44" s="6">
@@ -2780,12 +2955,12 @@
       <c r="E44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="7">
         <v>0.5</v>
       </c>
@@ -2795,14 +2970,14 @@
       <c r="E45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>20</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="20">
         <v>45197</v>
       </c>
       <c r="C46" s="6">
@@ -2814,12 +2989,12 @@
       <c r="E46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="7">
         <v>0.5</v>
       </c>
@@ -2829,14 +3004,14 @@
       <c r="E47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>21</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="20">
         <v>45198</v>
       </c>
       <c r="C48" s="6">
@@ -2848,12 +3023,12 @@
       <c r="E48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="7">
         <v>0.5</v>
       </c>
@@ -2863,8 +3038,8 @@
       <c r="E49" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2885,30 +3060,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="F30:F39"/>
-    <mergeCell ref="G30:G39"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="G8:G19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="G40:G49"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A30:A31"/>
@@ -2925,22 +3092,30 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="F30:F39"/>
+    <mergeCell ref="G30:G39"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="G8:G19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -2973,10 +3148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2998,10 +3173,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3011,10 +3186,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3024,15 +3199,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -3043,10 +3218,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3061,7 +3236,7 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>45201</v>
       </c>
       <c r="C8" s="6">
@@ -3080,7 +3255,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3097,7 +3272,7 @@
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>45202</v>
       </c>
       <c r="C10" s="6">
@@ -3114,7 +3289,7 @@
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3131,7 +3306,7 @@
       <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>45203</v>
       </c>
       <c r="C12" s="6">
@@ -3148,7 +3323,7 @@
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3165,7 +3340,7 @@
       <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="20">
         <v>45204</v>
       </c>
       <c r="C14" s="6">
@@ -3182,7 +3357,7 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3199,7 +3374,7 @@
       <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="20">
         <v>45205</v>
       </c>
       <c r="C16" s="6">
@@ -3216,7 +3391,7 @@
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3233,7 +3408,7 @@
       <c r="A18" s="19">
         <v>6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="20">
         <v>45206</v>
       </c>
       <c r="C18" s="6">
@@ -3250,7 +3425,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -3433,7 +3608,7 @@
       <c r="A30" s="19">
         <v>12</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="20">
         <v>45213</v>
       </c>
       <c r="C30" s="8">
@@ -3450,7 +3625,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -3482,24 +3657,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="F8:F19"/>
@@ -3516,6 +3673,24 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{AB82AF12-CD39-4887-9D5A-602E810BB096}"/>
@@ -3531,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2367E608-B497-428C-93EE-DAFC2C3CE8C6}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3545,10 +3720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3570,10 +3745,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3583,10 +3758,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3596,15 +3771,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -3615,10 +3790,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3808,7 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>45216</v>
       </c>
       <c r="C8" s="6">
@@ -3645,14 +3820,14 @@
       <c r="E8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3662,14 +3837,14 @@
       <c r="E9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>45217</v>
       </c>
       <c r="C10" s="6">
@@ -3681,12 +3856,12 @@
       <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3696,14 +3871,14 @@
       <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>45219</v>
       </c>
       <c r="C12" s="6">
@@ -3715,12 +3890,12 @@
       <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3730,14 +3905,14 @@
       <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="20">
         <v>45220</v>
       </c>
       <c r="C14" s="8">
@@ -3749,23 +3924,23 @@
       <c r="E14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="20">
         <v>45222</v>
       </c>
       <c r="C16" s="6">
@@ -3777,14 +3952,14 @@
       <c r="E16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="32" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3794,14 +3969,14 @@
       <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="20">
         <v>45223</v>
       </c>
       <c r="C18" s="6">
@@ -3813,12 +3988,12 @@
       <c r="E18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3828,14 +4003,14 @@
       <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>7</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="20">
         <v>45224</v>
       </c>
       <c r="C20" s="6">
@@ -3847,12 +4022,12 @@
       <c r="E20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3862,14 +4037,14 @@
       <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>8</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="20">
         <v>45225</v>
       </c>
       <c r="C22" s="6">
@@ -3881,12 +4056,12 @@
       <c r="E22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3896,14 +4071,14 @@
       <c r="E23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>9</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="20">
         <v>45226</v>
       </c>
       <c r="C24" s="6">
@@ -3915,12 +4090,12 @@
       <c r="E24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3930,113 +4105,86 @@
       <c r="E25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>10</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="20">
         <v>45227</v>
       </c>
       <c r="C26" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.70833333333333337</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="39"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="39"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="39"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="45"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="39"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="39"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="39"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -4057,45 +4205,37 @@
       <c r="A43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="30">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="F16:F35"/>
-    <mergeCell ref="G16:G35"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -4109,6 +4249,427 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F119ED6-1BBE-4A2A-B49B-F245F1A6BC1C}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20">
+        <v>45231</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20">
+        <v>45232</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="45"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/TA/LogBook Juan Sterling Martua.xlsx
+++ b/TA/LogBook Juan Sterling Martua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H P\Documents\KP\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61A9BC-B237-446A-A27C-B8867868CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C24A1-3662-4326-9827-8EAFAA5E3FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agustus" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Oktober" sheetId="7" r:id="rId3"/>
     <sheet name="Oktober (2)" sheetId="8" r:id="rId4"/>
     <sheet name="November" sheetId="9" r:id="rId5"/>
-    <sheet name="Total min 17 lembar" sheetId="2" r:id="rId6"/>
+    <sheet name="November (2)" sheetId="10" r:id="rId6"/>
+    <sheet name="November (3)" sheetId="11" r:id="rId7"/>
+    <sheet name="Total min 17 lembar" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +34,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjvtzc/PfK80MfwkvfzKiq/4kq1dA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjvtzc/PfK80MfwkvfzKiq/4kq1dA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="74">
   <si>
     <t>Nama</t>
   </si>
@@ -234,6 +236,33 @@
   </si>
   <si>
     <t>mengerjakan [Perbaikan November 1_23] Modul Skema Penelitian - Perbaikan Edit Laporan Kemajuan Penelitian</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul PkM] Revisi Master PkM - Insert dan Update Skema PkM</t>
+  </si>
+  <si>
+    <t>[Modul PkM] Revisi Master PkM - Main Page Prasyarat Skema PkM, [Modul PkM] Revisi Master PkM - Prasyarat Utama Skema PkM</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul PkM] Modul Skema PkM - Main Page</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul Pengajuan &amp; Pengecekan Proposal Buku] Modul Pengajuan Proposal - Insert Book Member</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul Pengajuan &amp; Pengecekan Proposal Buku] Modul Pengajuan Proposal - Confirm Book Admin Note</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul Alokasi &amp; Pencairan Dana Skema Buku] Modul Alokasi Dana - Insert PPD, [Modul Pengajuan &amp; Pengecekan Proposal Buku] Modul Pengajuan Proposal - Revisi Main Page Draft dan Resubmit Book Header</t>
+  </si>
+  <si>
+    <t>mengerjakan laporan TA</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul Alokasi &amp; Pencairan Dana Skema Buku] Modul Kelola PPD Buku - Insert Book PPD ID, [Modul Alokasi &amp; Pencairan Dana Skema Buku] Modul Kelola PPD Buku - Delete Book PPD</t>
+  </si>
+  <si>
+    <t>mengerjakan [Modul Review Penelitian Buku] Modul Review - Generate Proposal Review</t>
   </si>
 </sst>
 </file>
@@ -452,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,16 +523,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,10 +540,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,6 +552,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,19 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1375,8 +1400,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>26439</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>188364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1456,6 +1481,316 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="7753350"/>
+          <a:ext cx="1629002" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4962525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B12FD4-2A0B-4D35-8584-7628D64E474E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2428875"/>
+          <a:ext cx="1524000" cy="683664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4991100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648DBD19-CDED-456C-A351-C1C364521731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="6153150"/>
+          <a:ext cx="1524000" cy="683664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19277</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245E0259-9D56-45B9-B83F-8A4184752D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7400925"/>
+          <a:ext cx="1629002" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4962525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D4EF95-F727-4081-82A7-B1E1EE70D0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2428875"/>
+          <a:ext cx="1524000" cy="683664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4991100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9930BF-7BAF-40BC-9EE0-0E4D7EFD4EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="6153150"/>
+          <a:ext cx="1524000" cy="683664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19277</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3779ACD5-FB35-43B8-BB51-8C1ED644A0F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7724775"/>
           <a:ext cx="1629002" cy="1286054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1685,10 +2020,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1710,10 +2045,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1723,10 +2058,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1736,15 +2071,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -1755,10 +2090,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +2105,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="20">
@@ -1785,13 +2120,13 @@
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.5</v>
@@ -1802,11 +2137,11 @@
       <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="20">
@@ -1821,11 +2156,11 @@
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.5</v>
@@ -1836,11 +2171,11 @@
       <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="20">
@@ -1855,11 +2190,11 @@
       <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.5</v>
@@ -1870,11 +2205,11 @@
       <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
       <c r="B14" s="20">
@@ -1889,11 +2224,11 @@
       <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="21"/>
       <c r="C15" s="7">
         <v>0.5</v>
@@ -1904,11 +2239,11 @@
       <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
       <c r="B16" s="20">
@@ -1923,11 +2258,11 @@
       <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.5</v>
@@ -1938,11 +2273,11 @@
       <c r="E17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
       <c r="B18" s="20">
@@ -1957,20 +2292,20 @@
       <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="21"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="22">
         <v>7</v>
       </c>
       <c r="B20" s="20">
@@ -1985,13 +2320,13 @@
       <c r="E20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="20"/>
       <c r="C21" s="7">
         <v>0.5</v>
@@ -2002,11 +2337,11 @@
       <c r="E21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="A22" s="22">
         <v>8</v>
       </c>
       <c r="B22" s="20">
@@ -2021,11 +2356,11 @@
       <c r="E22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="20"/>
       <c r="C23" s="7">
         <v>0.5</v>
@@ -2036,11 +2371,11 @@
       <c r="E23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="22">
         <v>9</v>
       </c>
       <c r="B24" s="20">
@@ -2055,11 +2390,11 @@
       <c r="E24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="20"/>
       <c r="C25" s="7">
         <v>0.5</v>
@@ -2070,11 +2405,11 @@
       <c r="E25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -2089,11 +2424,11 @@
       <c r="E26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="21"/>
       <c r="C27" s="7">
         <v>0.5</v>
@@ -2104,17 +2439,17 @@
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -2145,31 +2480,53 @@
       <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="31"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A8:A9"/>
@@ -2186,28 +2543,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="F20:F27"/>
     <mergeCell ref="F8:F19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{595D8900-934A-4FF2-AF51-D95A8C7F1035}"/>
@@ -2240,10 +2575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2265,10 +2600,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2278,10 +2613,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2291,15 +2626,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -2310,10 +2645,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2660,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="20">
@@ -2340,22 +2675,22 @@
       <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="21"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="20">
@@ -2370,12 +2705,12 @@
       <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.5</v>
@@ -2386,11 +2721,11 @@
       <c r="E11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="20">
@@ -2405,11 +2740,11 @@
       <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.5</v>
@@ -2420,11 +2755,11 @@
       <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
       <c r="B14" s="20">
@@ -2439,11 +2774,11 @@
       <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="21"/>
       <c r="C15" s="7">
         <v>0.5</v>
@@ -2454,11 +2789,11 @@
       <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
       <c r="B16" s="20">
@@ -2473,11 +2808,11 @@
       <c r="E16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.5</v>
@@ -2488,11 +2823,11 @@
       <c r="E17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
       <c r="B18" s="20">
@@ -2507,11 +2842,11 @@
       <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="21"/>
       <c r="C19" s="7">
         <v>0.5</v>
@@ -2522,11 +2857,11 @@
       <c r="E19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="22">
         <v>7</v>
       </c>
       <c r="B20" s="20">
@@ -2541,13 +2876,13 @@
       <c r="E20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="21"/>
       <c r="C21" s="7">
         <v>0.5</v>
@@ -2558,11 +2893,11 @@
       <c r="E21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="A22" s="22">
         <v>8</v>
       </c>
       <c r="B22" s="20">
@@ -2577,11 +2912,11 @@
       <c r="E22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="21"/>
       <c r="C23" s="7">
         <v>0.5</v>
@@ -2592,11 +2927,11 @@
       <c r="E23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="22">
         <v>9</v>
       </c>
       <c r="B24" s="20">
@@ -2611,11 +2946,11 @@
       <c r="E24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="21"/>
       <c r="C25" s="7">
         <v>0.5</v>
@@ -2626,11 +2961,11 @@
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="20">
@@ -2645,11 +2980,11 @@
       <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="21"/>
       <c r="C27" s="7">
         <v>0.5</v>
@@ -2660,11 +2995,11 @@
       <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
+      <c r="A28" s="22">
         <v>11</v>
       </c>
       <c r="B28" s="20">
@@ -2679,11 +3014,11 @@
       <c r="E28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="21"/>
       <c r="C29" s="7">
         <v>0.5</v>
@@ -2694,11 +3029,11 @@
       <c r="E29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+      <c r="A30" s="22">
         <v>12</v>
       </c>
       <c r="B30" s="20">
@@ -2713,13 +3048,13 @@
       <c r="E30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="21"/>
       <c r="C31" s="7">
         <v>0.5</v>
@@ -2730,11 +3065,11 @@
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
+      <c r="A32" s="22">
         <v>13</v>
       </c>
       <c r="B32" s="20">
@@ -2749,11 +3084,11 @@
       <c r="E32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="27"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="21"/>
       <c r="C33" s="7">
         <v>0.5</v>
@@ -2764,11 +3099,11 @@
       <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="27"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
+      <c r="A34" s="22">
         <v>14</v>
       </c>
       <c r="B34" s="20">
@@ -2783,11 +3118,11 @@
       <c r="E34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="27"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="21"/>
       <c r="C35" s="7">
         <v>0.5</v>
@@ -2798,11 +3133,11 @@
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="27"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+      <c r="A36" s="22">
         <v>15</v>
       </c>
       <c r="B36" s="20">
@@ -2817,11 +3152,11 @@
       <c r="E36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="21"/>
       <c r="C37" s="7">
         <v>0.5</v>
@@ -2832,11 +3167,11 @@
       <c r="E37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="27"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
+      <c r="A38" s="22">
         <v>16</v>
       </c>
       <c r="B38" s="20">
@@ -2851,11 +3186,11 @@
       <c r="E38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="27"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="21"/>
       <c r="C39" s="7">
         <v>0.5</v>
@@ -2866,11 +3201,11 @@
       <c r="E39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="27"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
+      <c r="A40" s="22">
         <v>17</v>
       </c>
       <c r="B40" s="20">
@@ -2885,13 +3220,13 @@
       <c r="E40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="24" t="s">
+      <c r="F40" s="26"/>
+      <c r="G40" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="21"/>
       <c r="C41" s="7">
         <v>0.5</v>
@@ -2902,11 +3237,11 @@
       <c r="E41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="27"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
+      <c r="A42" s="22">
         <v>18</v>
       </c>
       <c r="B42" s="20">
@@ -2921,11 +3256,11 @@
       <c r="E42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="27"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="21"/>
       <c r="C43" s="7">
         <v>0.5</v>
@@ -2936,11 +3271,11 @@
       <c r="E43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="27"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
+      <c r="A44" s="22">
         <v>19</v>
       </c>
       <c r="B44" s="20">
@@ -2955,11 +3290,11 @@
       <c r="E44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="27"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="21"/>
       <c r="C45" s="7">
         <v>0.5</v>
@@ -2970,11 +3305,11 @@
       <c r="E45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
+      <c r="A46" s="22">
         <v>20</v>
       </c>
       <c r="B46" s="20">
@@ -2989,11 +3324,11 @@
       <c r="E46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="27"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="21"/>
       <c r="C47" s="7">
         <v>0.5</v>
@@ -3004,11 +3339,11 @@
       <c r="E47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="27"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
+      <c r="A48" s="22">
         <v>21</v>
       </c>
       <c r="B48" s="20">
@@ -3023,11 +3358,11 @@
       <c r="E48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="21"/>
       <c r="C49" s="7">
         <v>0.5</v>
@@ -3038,8 +3373,8 @@
       <c r="E49" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="27"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3060,22 +3395,30 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="F30:F39"/>
+    <mergeCell ref="G30:G39"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="G8:G19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="G40:G49"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A30:A31"/>
@@ -3092,30 +3435,22 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="F30:F39"/>
-    <mergeCell ref="G30:G39"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="G8:G19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -3148,10 +3483,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3173,10 +3508,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3186,10 +3521,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3199,15 +3534,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -3218,10 +3553,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3568,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="20">
@@ -3248,13 +3583,13 @@
       <c r="E8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
@@ -3265,11 +3600,11 @@
       <c r="E9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="20">
@@ -3284,11 +3619,11 @@
       <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
@@ -3299,11 +3634,11 @@
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="20">
@@ -3318,11 +3653,11 @@
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
@@ -3333,11 +3668,11 @@
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
       <c r="B14" s="20">
@@ -3352,11 +3687,11 @@
       <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="21"/>
       <c r="C15" s="7">
         <v>0.54166666666666663</v>
@@ -3367,11 +3702,11 @@
       <c r="E15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
       <c r="B16" s="20">
@@ -3386,11 +3721,11 @@
       <c r="E16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
@@ -3401,11 +3736,11 @@
       <c r="E17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
       <c r="B18" s="20">
@@ -3420,23 +3755,23 @@
       <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="21"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="38">
         <v>7</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="40">
         <v>45208</v>
       </c>
       <c r="C20" s="6">
@@ -3448,14 +3783,14 @@
       <c r="E20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="32" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3465,14 +3800,14 @@
       <c r="E21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="38">
         <v>8</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="40">
         <v>45209</v>
       </c>
       <c r="C22" s="6">
@@ -3484,12 +3819,12 @@
       <c r="E22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3499,14 +3834,14 @@
       <c r="E23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
+      <c r="A24" s="38">
         <v>9</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="40">
         <v>45210</v>
       </c>
       <c r="C24" s="6">
@@ -3518,12 +3853,12 @@
       <c r="E24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3533,14 +3868,14 @@
       <c r="E25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="38">
         <v>10</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="40">
         <v>45211</v>
       </c>
       <c r="C26" s="6">
@@ -3552,12 +3887,12 @@
       <c r="E26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3567,14 +3902,14 @@
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="38">
         <v>11</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="40">
         <v>45212</v>
       </c>
       <c r="C28" s="6">
@@ -3586,12 +3921,12 @@
       <c r="E28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3601,11 +3936,11 @@
       <c r="E29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+      <c r="A30" s="22">
         <v>12</v>
       </c>
       <c r="B30" s="20">
@@ -3620,17 +3955,17 @@
       <c r="E30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="39"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="21"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="40"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -3657,6 +3992,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="F8:F19"/>
@@ -3673,24 +4026,6 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{AB82AF12-CD39-4887-9D5A-602E810BB096}"/>
@@ -3720,10 +4055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3745,10 +4080,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3758,10 +4093,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3771,15 +4106,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -3790,10 +4125,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +4140,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="20">
@@ -3820,13 +4155,13 @@
       <c r="E8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
@@ -3837,11 +4172,11 @@
       <c r="E9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="20">
@@ -3856,11 +4191,11 @@
       <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
@@ -3871,11 +4206,11 @@
       <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="20">
@@ -3890,11 +4225,11 @@
       <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="21"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
@@ -3905,11 +4240,11 @@
       <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
       <c r="B14" s="20">
@@ -3924,20 +4259,20 @@
       <c r="E14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="21"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
       <c r="B16" s="20">
@@ -3952,13 +4287,13 @@
       <c r="E16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="21"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
@@ -3969,11 +4304,11 @@
       <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
       <c r="B18" s="20">
@@ -3988,11 +4323,11 @@
       <c r="E18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="21"/>
       <c r="C19" s="7">
         <v>0.54166666666666663</v>
@@ -4003,11 +4338,11 @@
       <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="22">
         <v>7</v>
       </c>
       <c r="B20" s="20">
@@ -4022,11 +4357,11 @@
       <c r="E20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="21"/>
       <c r="C21" s="7">
         <v>0.54166666666666663</v>
@@ -4037,11 +4372,11 @@
       <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="A22" s="22">
         <v>8</v>
       </c>
       <c r="B22" s="20">
@@ -4056,11 +4391,11 @@
       <c r="E22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="21"/>
       <c r="C23" s="7">
         <v>0.54166666666666663</v>
@@ -4071,11 +4406,11 @@
       <c r="E23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="22">
         <v>9</v>
       </c>
       <c r="B24" s="20">
@@ -4090,11 +4425,11 @@
       <c r="E24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="21"/>
       <c r="C25" s="7">
         <v>0.54166666666666663</v>
@@ -4105,11 +4440,11 @@
       <c r="E25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="20">
@@ -4124,67 +4459,59 @@
       <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="18"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -4206,36 +4533,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="G16:G27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -4252,8 +4579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F119ED6-1BBE-4A2A-B49B-F245F1A6BC1C}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4266,10 +4593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4291,10 +4618,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4304,10 +4631,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4317,15 +4644,15 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -4336,10 +4663,10 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -4351,7 +4678,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="20">
@@ -4366,11 +4693,11 @@
       <c r="E8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="21"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
@@ -4381,11 +4708,11 @@
       <c r="E9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="20">
@@ -4400,11 +4727,11 @@
       <c r="E10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="21"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
@@ -4415,202 +4742,1204 @@
       <c r="E11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20">
+        <v>45233</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>4</v>
+      </c>
+      <c r="B14" s="40">
+        <v>45236</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>5</v>
+      </c>
+      <c r="B16" s="40">
+        <v>45237</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>6</v>
+      </c>
+      <c r="B18" s="40">
+        <v>45238</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>7</v>
+      </c>
+      <c r="B20" s="40">
+        <v>45239</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="40">
+        <v>45240</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="F14:F23"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F806E3E7-19A1-4247-B2A7-2FF3C9CEC048}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20">
+        <v>45243</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20">
+        <v>45244</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20">
+        <v>45245</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20">
+        <v>45246</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="38">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20">
+        <v>45247</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>6</v>
+      </c>
+      <c r="B18" s="40">
+        <v>45250</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>6</v>
+      </c>
+      <c r="B20" s="40">
+        <v>45251</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="40">
+        <v>45252</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
+        <v>6</v>
+      </c>
+      <c r="B24" s="40">
+        <v>45253</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>6</v>
+      </c>
+      <c r="B26" s="40">
+        <v>45254</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="G8:G17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="G18:G27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F8:F17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EA33C-7FDE-4413-87E0-77E6EC5AE958}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20">
+        <v>45257</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20">
+        <v>45258</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="20"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="21"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="21"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
       <c r="B16" s="20"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="21"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="18"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="45"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -4638,18 +5967,18 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="G16:G27"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="G18:G27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F8:F17"/>
+    <mergeCell ref="G8:G17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A13"/>
@@ -4669,7 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/TA/LogBook Juan Sterling Martua.xlsx
+++ b/TA/LogBook Juan Sterling Martua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H P\Documents\KP\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS TUF\Documents\KP\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C24A1-3662-4326-9827-8EAFAA5E3FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4ECA28-30C1-4EF0-A2F5-AD2C967B9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agustus" sheetId="6" r:id="rId1"/>
@@ -531,8 +531,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,8 +549,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -552,17 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2006,24 +2006,24 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="67.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="67.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2044,11 +2044,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2057,11 +2057,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2070,30 +2070,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2104,11 +2104,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45159</v>
       </c>
       <c r="C8" s="6">
@@ -2120,14 +2120,14 @@
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7">
         <v>0.5</v>
       </c>
@@ -2137,14 +2137,14 @@
       <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45160</v>
       </c>
       <c r="C10" s="6">
@@ -2156,12 +2156,12 @@
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="31"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.5</v>
       </c>
@@ -2171,14 +2171,14 @@
       <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>45161</v>
       </c>
       <c r="C12" s="6">
@@ -2190,12 +2190,12 @@
       <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7">
         <v>0.5</v>
       </c>
@@ -2205,14 +2205,14 @@
       <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>45162</v>
       </c>
       <c r="C14" s="6">
@@ -2224,12 +2224,12 @@
       <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7">
         <v>0.5</v>
       </c>
@@ -2239,14 +2239,14 @@
       <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>45163</v>
       </c>
       <c r="C16" s="6">
@@ -2258,12 +2258,12 @@
       <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7">
         <v>0.5</v>
       </c>
@@ -2273,14 +2273,14 @@
       <c r="E17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>45164</v>
       </c>
       <c r="C18" s="6">
@@ -2292,23 +2292,23 @@
       <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="23">
         <v>45166</v>
       </c>
       <c r="C20" s="6">
@@ -2320,14 +2320,14 @@
       <c r="E20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7">
         <v>0.5</v>
       </c>
@@ -2337,14 +2337,14 @@
       <c r="E21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="31"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>8</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="23">
         <v>45167</v>
       </c>
       <c r="C22" s="6">
@@ -2356,12 +2356,12 @@
       <c r="E22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="31"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7">
         <v>0.5</v>
       </c>
@@ -2371,14 +2371,14 @@
       <c r="E23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="31"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="23">
         <v>45168</v>
       </c>
       <c r="C24" s="6">
@@ -2390,12 +2390,12 @@
       <c r="E24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="31"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="7">
         <v>0.5</v>
       </c>
@@ -2405,14 +2405,14 @@
       <c r="E25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="31"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>10</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="6">
@@ -2424,12 +2424,12 @@
       <c r="E26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F26" s="31"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7">
         <v>0.5</v>
       </c>
@@ -2439,94 +2439,72 @@
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="31"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="31"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="31"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="31"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A8:A9"/>
@@ -2543,6 +2521,28 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="F20:F27"/>
     <mergeCell ref="F8:F19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{595D8900-934A-4FF2-AF51-D95A8C7F1035}"/>
@@ -2561,24 +2561,24 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2599,11 +2599,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2612,11 +2612,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2625,30 +2625,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2659,11 +2659,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45171</v>
       </c>
       <c r="C8" s="6">
@@ -2680,20 +2680,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="11"/>
       <c r="F9" s="33"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45173</v>
       </c>
       <c r="C10" s="6">
@@ -2709,9 +2709,9 @@
       <c r="G10" s="36"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.5</v>
       </c>
@@ -2724,11 +2724,11 @@
       <c r="F11" s="33"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>45174</v>
       </c>
       <c r="C12" s="6">
@@ -2743,9 +2743,9 @@
       <c r="F12" s="33"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7">
         <v>0.5</v>
       </c>
@@ -2758,11 +2758,11 @@
       <c r="F13" s="33"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>45175</v>
       </c>
       <c r="C14" s="6">
@@ -2777,9 +2777,9 @@
       <c r="F14" s="33"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7">
         <v>0.5</v>
       </c>
@@ -2792,11 +2792,11 @@
       <c r="F15" s="33"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>45176</v>
       </c>
       <c r="C16" s="6">
@@ -2811,9 +2811,9 @@
       <c r="F16" s="33"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7">
         <v>0.5</v>
       </c>
@@ -2826,11 +2826,11 @@
       <c r="F17" s="33"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>45177</v>
       </c>
       <c r="C18" s="6">
@@ -2845,9 +2845,9 @@
       <c r="F18" s="33"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="7">
         <v>0.5</v>
       </c>
@@ -2860,11 +2860,11 @@
       <c r="F19" s="34"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="23">
         <v>45180</v>
       </c>
       <c r="C20" s="6">
@@ -2876,14 +2876,14 @@
       <c r="E20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7">
         <v>0.5</v>
       </c>
@@ -2893,14 +2893,14 @@
       <c r="E21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>8</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="23">
         <v>45181</v>
       </c>
       <c r="C22" s="6">
@@ -2912,12 +2912,12 @@
       <c r="E22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="7">
         <v>0.5</v>
       </c>
@@ -2927,14 +2927,14 @@
       <c r="E23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F23" s="31"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="23">
         <v>45182</v>
       </c>
       <c r="C24" s="6">
@@ -2946,12 +2946,12 @@
       <c r="E24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="31"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="7">
         <v>0.5</v>
       </c>
@@ -2961,14 +2961,14 @@
       <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="31"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>10</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="23">
         <v>45183</v>
       </c>
       <c r="C26" s="6">
@@ -2980,12 +2980,12 @@
       <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F26" s="31"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7">
         <v>0.5</v>
       </c>
@@ -2995,14 +2995,14 @@
       <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F27" s="31"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>11</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="23">
         <v>45184</v>
       </c>
       <c r="C28" s="6">
@@ -3014,12 +3014,12 @@
       <c r="E28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F28" s="31"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7">
         <v>0.5</v>
       </c>
@@ -3029,14 +3029,14 @@
       <c r="E29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="31"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>12</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="23">
         <v>45187</v>
       </c>
       <c r="C30" s="6">
@@ -3048,14 +3048,14 @@
       <c r="E30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="19" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="7">
         <v>0.5</v>
       </c>
@@ -3065,14 +3065,14 @@
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="31"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>13</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="23">
         <v>45188</v>
       </c>
       <c r="C32" s="6">
@@ -3084,12 +3084,12 @@
       <c r="E32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="31"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="7">
         <v>0.5</v>
       </c>
@@ -3099,14 +3099,14 @@
       <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="31"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>14</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="23">
         <v>45189</v>
       </c>
       <c r="C34" s="6">
@@ -3118,12 +3118,12 @@
       <c r="E34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="31"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="7">
         <v>0.5</v>
       </c>
@@ -3133,14 +3133,14 @@
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="31"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>15</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="23">
         <v>45190</v>
       </c>
       <c r="C36" s="6">
@@ -3152,12 +3152,12 @@
       <c r="E36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="31"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="7">
         <v>0.5</v>
       </c>
@@ -3167,14 +3167,14 @@
       <c r="E37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="31"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>16</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="23">
         <v>45191</v>
       </c>
       <c r="C38" s="6">
@@ -3186,12 +3186,12 @@
       <c r="E38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="31"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="7">
         <v>0.5</v>
       </c>
@@ -3201,14 +3201,14 @@
       <c r="E39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F39" s="31"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>17</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="23">
         <v>45194</v>
       </c>
       <c r="C40" s="6">
@@ -3220,14 +3220,14 @@
       <c r="E40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="19" t="s">
+      <c r="F40" s="31"/>
+      <c r="G40" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="7">
         <v>0.5</v>
       </c>
@@ -3237,14 +3237,14 @@
       <c r="E41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F41" s="31"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>18</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="23">
         <v>45195</v>
       </c>
       <c r="C42" s="6">
@@ -3256,12 +3256,12 @@
       <c r="E42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F42" s="31"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="7">
         <v>0.5</v>
       </c>
@@ -3271,14 +3271,14 @@
       <c r="E43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F43" s="31"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>19</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="23">
         <v>45196</v>
       </c>
       <c r="C44" s="6">
@@ -3290,12 +3290,12 @@
       <c r="E44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F44" s="31"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="7">
         <v>0.5</v>
       </c>
@@ -3305,14 +3305,14 @@
       <c r="E45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F45" s="31"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>20</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="23">
         <v>45197</v>
       </c>
       <c r="C46" s="6">
@@ -3324,12 +3324,12 @@
       <c r="E46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F46" s="31"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
-      <c r="B47" s="21"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="7">
         <v>0.5</v>
       </c>
@@ -3339,14 +3339,14 @@
       <c r="E47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F47" s="31"/>
+      <c r="G47" s="30"/>
+    </row>
+    <row r="48" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>21</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="23">
         <v>45198</v>
       </c>
       <c r="C48" s="6">
@@ -3358,12 +3358,12 @@
       <c r="E48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F48" s="31"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="7">
         <v>0.5</v>
       </c>
@@ -3373,52 +3373,44 @@
       <c r="E49" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F49" s="31"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="F30:F39"/>
-    <mergeCell ref="G30:G39"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="G8:G19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="G40:G49"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A30:A31"/>
@@ -3435,22 +3427,30 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="F30:F39"/>
+    <mergeCell ref="G30:G39"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="G8:G19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -3469,24 +3469,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA61D47E-E6D1-4A3F-B795-2992F6F493B8}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="69.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="69.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3507,11 +3507,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3520,11 +3520,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3533,30 +3533,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3567,11 +3567,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45201</v>
       </c>
       <c r="C8" s="6">
@@ -3588,9 +3588,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3603,11 +3603,11 @@
       <c r="F9" s="33"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45202</v>
       </c>
       <c r="C10" s="6">
@@ -3622,9 +3622,9 @@
       <c r="F10" s="33"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3637,11 +3637,11 @@
       <c r="F11" s="33"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>45203</v>
       </c>
       <c r="C12" s="6">
@@ -3656,9 +3656,9 @@
       <c r="F12" s="33"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3671,11 +3671,11 @@
       <c r="F13" s="33"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>45204</v>
       </c>
       <c r="C14" s="6">
@@ -3690,9 +3690,9 @@
       <c r="F14" s="33"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3705,11 +3705,11 @@
       <c r="F15" s="33"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>45205</v>
       </c>
       <c r="C16" s="6">
@@ -3724,9 +3724,9 @@
       <c r="F16" s="33"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -3739,11 +3739,11 @@
       <c r="F17" s="33"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>45206</v>
       </c>
       <c r="C18" s="6">
@@ -3758,16 +3758,16 @@
       <c r="F18" s="33"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
       <c r="F19" s="34"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>7</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="41"/>
       <c r="C21" s="7">
@@ -3803,7 +3803,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>8</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="41"/>
       <c r="C23" s="7">
@@ -3837,7 +3837,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>9</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="41"/>
       <c r="C25" s="7">
@@ -3871,7 +3871,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>10</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="42"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="41"/>
       <c r="C27" s="7">
@@ -3905,7 +3905,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>11</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="41"/>
       <c r="C29" s="7">
@@ -3939,11 +3939,11 @@
       <c r="F29" s="33"/>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>12</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="23">
         <v>45213</v>
       </c>
       <c r="C30" s="8">
@@ -3958,58 +3958,40 @@
       <c r="F30" s="33"/>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
       <c r="F31" s="34"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="F8:F19"/>
@@ -4026,6 +4008,24 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{AB82AF12-CD39-4887-9D5A-602E810BB096}"/>
@@ -4041,24 +4041,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2367E608-B497-428C-93EE-DAFC2C3CE8C6}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4079,11 +4079,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4092,11 +4092,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4105,30 +4105,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -4139,11 +4139,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45216</v>
       </c>
       <c r="C8" s="6">
@@ -4155,14 +4155,14 @@
       <c r="E8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4172,14 +4172,14 @@
       <c r="E9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45217</v>
       </c>
       <c r="C10" s="6">
@@ -4191,12 +4191,12 @@
       <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="31"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4206,14 +4206,14 @@
       <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>45219</v>
       </c>
       <c r="C12" s="6">
@@ -4225,12 +4225,12 @@
       <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4240,14 +4240,14 @@
       <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>45220</v>
       </c>
       <c r="C14" s="8">
@@ -4259,23 +4259,23 @@
       <c r="E14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>45222</v>
       </c>
       <c r="C16" s="6">
@@ -4287,14 +4287,14 @@
       <c r="E16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4304,14 +4304,14 @@
       <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F17" s="31"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>45223</v>
       </c>
       <c r="C18" s="6">
@@ -4323,12 +4323,12 @@
       <c r="E18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F18" s="31"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4338,14 +4338,14 @@
       <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F19" s="31"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="23">
         <v>45224</v>
       </c>
       <c r="C20" s="6">
@@ -4357,12 +4357,12 @@
       <c r="E20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F20" s="31"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4372,14 +4372,14 @@
       <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="31"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>8</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="23">
         <v>45225</v>
       </c>
       <c r="C22" s="6">
@@ -4391,12 +4391,12 @@
       <c r="E22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="31"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4406,14 +4406,14 @@
       <c r="E23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F23" s="31"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="23">
         <v>45226</v>
       </c>
       <c r="C24" s="6">
@@ -4425,12 +4425,12 @@
       <c r="E24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="31"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4440,14 +4440,14 @@
       <c r="E25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F25" s="31"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>10</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="23">
         <v>45227</v>
       </c>
       <c r="C26" s="8">
@@ -4459,80 +4459,102 @@
       <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="31"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="31"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="18"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A20:A21"/>
@@ -4541,28 +4563,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="G16:G27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -4579,24 +4579,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F119ED6-1BBE-4A2A-B49B-F245F1A6BC1C}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4617,11 +4617,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4630,11 +4630,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4643,30 +4643,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -4677,11 +4677,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45231</v>
       </c>
       <c r="C8" s="6">
@@ -4696,9 +4696,9 @@
       <c r="F8" s="32"/>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4711,11 +4711,11 @@
       <c r="F9" s="33"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45232</v>
       </c>
       <c r="C10" s="6">
@@ -4730,9 +4730,9 @@
       <c r="F10" s="33"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4745,11 +4745,11 @@
       <c r="F11" s="33"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>45233</v>
       </c>
       <c r="C12" s="6">
@@ -4764,9 +4764,9 @@
       <c r="F12" s="33"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>4</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="41"/>
       <c r="C15" s="7">
@@ -4813,7 +4813,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>5</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="41"/>
       <c r="C17" s="7">
@@ -4847,7 +4847,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="41"/>
       <c r="C19" s="7">
@@ -4881,7 +4881,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="41"/>
       <c r="C21" s="7">
@@ -4915,7 +4915,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>8</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="41"/>
       <c r="C23" s="7">
@@ -4949,68 +4949,78 @@
       <c r="F23" s="34"/>
       <c r="G23" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="18"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A14:A15"/>
@@ -5027,16 +5037,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5048,24 +5048,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F806E3E7-19A1-4247-B2A7-2FF3C9CEC048}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5086,11 +5086,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5099,11 +5099,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5112,30 +5112,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -5146,11 +5146,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45243</v>
       </c>
       <c r="C8" s="6">
@@ -5162,12 +5162,12 @@
       <c r="E8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="31"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5177,14 +5177,14 @@
       <c r="E9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F9" s="31"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45244</v>
       </c>
       <c r="C10" s="6">
@@ -5196,12 +5196,12 @@
       <c r="E10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="31"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5211,14 +5211,14 @@
       <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="31"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>45245</v>
       </c>
       <c r="C12" s="6">
@@ -5230,12 +5230,12 @@
       <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="31"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5245,14 +5245,14 @@
       <c r="E13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F13" s="31"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>45246</v>
       </c>
       <c r="C14" s="6">
@@ -5264,12 +5264,12 @@
       <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F14" s="31"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5279,14 +5279,14 @@
       <c r="E15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F15" s="31"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>5</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>45247</v>
       </c>
       <c r="C16" s="6">
@@ -5298,12 +5298,12 @@
       <c r="E16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F16" s="31"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5313,10 +5313,10 @@
       <c r="E17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="31"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="41"/>
       <c r="C19" s="7">
@@ -5350,7 +5350,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>6</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="41"/>
       <c r="C21" s="7">
@@ -5384,7 +5384,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>6</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="41"/>
       <c r="C23" s="7">
@@ -5418,7 +5418,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>6</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="41"/>
       <c r="C25" s="7">
@@ -5452,7 +5452,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>6</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="41"/>
       <c r="C27" s="7">
@@ -5486,68 +5486,82 @@
       <c r="F27" s="34"/>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="18"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="G8:G17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -5564,20 +5578,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5590,23 +5590,23 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5627,11 +5627,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5640,11 +5640,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5653,30 +5653,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -5687,11 +5687,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>45257</v>
       </c>
       <c r="C8" s="6">
@@ -5703,12 +5703,12 @@
       <c r="E8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F8" s="31"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5718,14 +5718,14 @@
       <c r="E9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="31"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>45258</v>
       </c>
       <c r="C10" s="6">
@@ -5737,12 +5737,12 @@
       <c r="E10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="31"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5752,64 +5752,64 @@
       <c r="E11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="31"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="31"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="31"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="31"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="31"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="31"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="31"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="40"/>
       <c r="C18" s="6"/>
@@ -5818,7 +5818,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="41"/>
       <c r="C19" s="7"/>
@@ -5827,7 +5827,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="40"/>
       <c r="C20" s="6"/>
@@ -5836,7 +5836,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="41"/>
       <c r="C21" s="7"/>
@@ -5845,7 +5845,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="40"/>
       <c r="C22" s="6"/>
@@ -5854,7 +5854,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="41"/>
       <c r="C23" s="7"/>
@@ -5863,7 +5863,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="40"/>
       <c r="C24" s="6"/>
@@ -5872,7 +5872,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="41"/>
       <c r="C25" s="7"/>
@@ -5881,7 +5881,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="40"/>
       <c r="C26" s="6"/>
@@ -5890,7 +5890,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="41"/>
       <c r="C27" s="7"/>
@@ -5899,82 +5899,74 @@
       <c r="F27" s="34"/>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="18"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="G18:G27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F17"/>
@@ -5985,12 +5977,20 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="G18:G27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6009,39 +6009,39 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
